--- a/Experiment results/MLPs results_world map detection.xlsx
+++ b/Experiment results/MLPs results_world map detection.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\li.7957\Desktop\Map_Identification_Classification\Experiment results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiali\Desktop\Map_Identification_Classification\Experiment results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A602302-45F8-4E4E-8A78-2053D0F12485}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425"/>
+    <workbookView xWindow="-7217" yWindow="960" windowWidth="16457" windowHeight="8520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="24">
   <si>
     <t>Training loss</t>
   </si>
@@ -96,12 +103,15 @@
   </si>
   <si>
     <t>4 hidden layers</t>
+  </si>
+  <si>
+    <t>Average of 2 hidden layers</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -269,7 +279,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$152</c:f>
+              <c:f>Sheet1!$H$155</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -292,7 +302,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$161:$J$161</c:f>
+              <c:f>Sheet1!$I$164:$J$164</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
@@ -303,7 +313,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$162:$J$162</c:f>
+              <c:f>Sheet1!$I$165:$J$165</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -324,7 +334,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$153</c:f>
+              <c:f>Sheet1!$H$156</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -345,7 +355,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$161:$J$161</c:f>
+              <c:f>Sheet1!$I$164:$J$164</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
@@ -356,7 +366,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$163:$J$163</c:f>
+              <c:f>Sheet1!$I$166:$J$166</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -377,7 +387,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$154</c:f>
+              <c:f>Sheet1!$H$157</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -398,7 +408,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$161:$J$161</c:f>
+              <c:f>Sheet1!$I$164:$J$164</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="1">
@@ -409,7 +419,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$164:$J$164</c:f>
+              <c:f>Sheet1!$I$167:$J$167</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -586,7 +596,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -594,6 +603,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1177,13 +1187,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1016932</xdr:colOff>
-      <xdr:row>148</xdr:row>
+      <xdr:row>151</xdr:row>
       <xdr:rowOff>110378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>163</xdr:row>
+      <xdr:row>166</xdr:row>
       <xdr:rowOff>164166</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1474,26 +1484,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" customWidth="1"/>
+    <col min="2" max="2" width="16.15234375" customWidth="1"/>
+    <col min="3" max="3" width="20.15234375" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" customWidth="1"/>
+    <col min="5" max="5" width="17.84375" customWidth="1"/>
+    <col min="7" max="7" width="26.53515625" customWidth="1"/>
+    <col min="8" max="8" width="16.69140625" customWidth="1"/>
+    <col min="9" max="9" width="13.3828125" customWidth="1"/>
+    <col min="10" max="10" width="11.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1509,8 +1520,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1521,7 +1535,7 @@
         <v>0.87333333930000001</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -1538,7 +1552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1549,7 +1563,7 @@
         <v>0.86333333000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1566,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1577,7 +1591,7 @@
         <v>0.50666666000000005</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1594,7 +1608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1605,7 +1619,7 @@
         <v>0.50666666000000005</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1622,7 +1636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1633,7 +1647,7 @@
         <v>0.49333333299999999</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -1689,232 +1703,242 @@
         <v>0.50666659999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>0</v>
       </c>
-      <c r="C22" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>2</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23">
-        <v>1</v>
-      </c>
-      <c r="C23">
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>0.51285715549999999</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>0.49333333299999999</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>11</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>0</v>
       </c>
-      <c r="C25" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
-      <c r="A26">
-        <v>1</v>
-      </c>
-      <c r="C26" s="1">
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
         <v>0.48857144000000002</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>0.50666666000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:5">
+      <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
-        <v>1</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
         <v>2</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
-      <c r="A29">
-        <v>1</v>
-      </c>
-      <c r="C29" s="1">
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
         <v>0.48857139999999999</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>0.50666666000000005</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>0</v>
       </c>
-      <c r="C31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>2</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E32" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32">
-        <v>1</v>
-      </c>
-      <c r="C32">
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="C33">
         <v>0.51139999999999997</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="3" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2">
-        <v>1</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35">
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36">
         <v>0.51290000000000002</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35">
+      <c r="D36" s="2"/>
+      <c r="E36">
         <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B40" t="s">
         <v>0</v>
       </c>
-      <c r="C37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>2</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38">
-        <v>1</v>
-      </c>
-      <c r="C38">
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>0.48859999999999998</v>
       </c>
-      <c r="E38">
+      <c r="E41">
         <v>0.50670000000000004</v>
       </c>
     </row>
-    <row r="94" spans="8:9">
-      <c r="H94" t="e">
+    <row r="97" spans="8:9">
+      <c r="H97" t="e">
         <f>AVERAGE(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
-      <c r="I94" t="e">
+      <c r="I97" t="e">
         <f>AVERAGE(#REF!,#REF!,#REF!,#REF!,#REF!)</f>
         <v>#REF!</v>
       </c>
     </row>
-    <row r="151" spans="8:9">
-      <c r="I151" t="s">
+    <row r="154" spans="8:9">
+      <c r="I154" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="8:9">
-      <c r="H152" t="s">
+    <row r="155" spans="8:9">
+      <c r="H155" t="s">
         <v>20</v>
       </c>
-      <c r="I152">
+      <c r="I155">
         <v>0.88</v>
       </c>
     </row>
-    <row r="153" spans="8:9">
-      <c r="H153" t="s">
+    <row r="156" spans="8:9">
+      <c r="H156" t="s">
         <v>21</v>
       </c>
-      <c r="I153">
+      <c r="I156">
         <v>0.91</v>
       </c>
     </row>
-    <row r="154" spans="8:9">
-      <c r="H154" t="s">
+    <row r="157" spans="8:9">
+      <c r="H157" t="s">
         <v>22</v>
       </c>
-      <c r="I154">
+      <c r="I157">
         <v>0.41</v>
       </c>
     </row>
-    <row r="161" spans="10:10">
-      <c r="J161" t="s">
+    <row r="164" spans="10:10">
+      <c r="J164" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="10:10">
-      <c r="J162">
+    <row r="165" spans="10:10">
+      <c r="J165">
         <v>0.79</v>
       </c>
     </row>
-    <row r="163" spans="10:10">
-      <c r="J163" s="1">
+    <row r="166" spans="10:10">
+      <c r="J166" s="1">
         <v>0.9</v>
       </c>
     </row>
-    <row r="164" spans="10:10">
-      <c r="J164">
+    <row r="167" spans="10:10">
+      <c r="J167">
         <v>0.49</v>
       </c>
     </row>

--- a/Experiment results/MLPs results_world map detection.xlsx
+++ b/Experiment results/MLPs results_world map detection.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
   <si>
     <t>Training loss</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>4 hidden layers</t>
+  </si>
+  <si>
+    <t>Training size</t>
+  </si>
+  <si>
+    <t>Testing accuracy</t>
+  </si>
+  <si>
+    <t>SVM training size test</t>
   </si>
 </sst>
 </file>
@@ -1477,14 +1486,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="20.140625" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
@@ -1859,6 +1868,137 @@
         <v>0.50670000000000004</v>
       </c>
     </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>700</v>
+      </c>
+      <c r="B42">
+        <v>0.93142857000000001</v>
+      </c>
+      <c r="C42">
+        <v>0.90333333859841003</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>600</v>
+      </c>
+      <c r="B43">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="C43">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>500</v>
+      </c>
+      <c r="B44">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="C44">
+        <v>0.49330000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>400</v>
+      </c>
+      <c r="B45">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="C45">
+        <v>0.73329999999999995</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>300</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>0.49330000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>600</v>
+      </c>
+      <c r="B53">
+        <v>0.998</v>
+      </c>
+      <c r="C53">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>500</v>
+      </c>
+      <c r="B54">
+        <v>0.998</v>
+      </c>
+      <c r="C54">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>400</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>300</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
     <row r="94" spans="8:9">
       <c r="H94" t="e">
         <f>AVERAGE(#REF!,#REF!,#REF!,#REF!,#REF!)</f>

--- a/Experiment results/MLPs results_world map detection.xlsx
+++ b/Experiment results/MLPs results_world map detection.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\li.7957\Desktop\Map_Identification_Classification\Experiment results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiali\Desktop\Map_Identification_Classification\Experiment results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EF4C26-86DA-4D3C-BF66-01FA0FDEA689}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
   <si>
     <t>Training loss</t>
   </si>
@@ -110,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -595,7 +602,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -603,6 +609,685 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MLPs' Testing Accuracy with different training size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Testing accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$42:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$42:$F$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.49330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.73329999999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90333333859841003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BAD7-4DC1-AE3E-4BAF50604E89}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="516540912"/>
+        <c:axId val="516435744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="516540912"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516435744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="516435744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="516540912"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>SVMs' Testing Accuracy with different training size</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$51</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Testing accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$52:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$52:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.49299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-48B1-4269-A278-97980C3E2EAA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="584674576"/>
+        <c:axId val="348734144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="584674576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348734144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="348734144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="584674576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -677,6 +1362,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -827,6 +1592,1038 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1213,6 +3010,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>560292</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>227318</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>70437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01133540-18A0-4F16-84F8-E965D9F28311}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>553890</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>14727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>220915</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>158163</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42E7ED55-4D24-4A12-B68F-8495883332E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1483,23 +3352,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41:E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.6"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="18.53515625" customWidth="1"/>
+    <col min="2" max="2" width="20.69140625" customWidth="1"/>
+    <col min="3" max="3" width="20.15234375" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" customWidth="1"/>
+    <col min="5" max="5" width="17.84375" customWidth="1"/>
+    <col min="6" max="6" width="20.69140625" customWidth="1"/>
+    <col min="8" max="8" width="16.69140625" customWidth="1"/>
+    <col min="9" max="9" width="13.3828125" customWidth="1"/>
+    <col min="10" max="10" width="11.53515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1810,7 +3680,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
@@ -1827,7 +3697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -1840,7 +3710,7 @@
         <v>0.49299999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
         <v>17</v>
       </c>
@@ -1857,7 +3727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1868,7 +3738,7 @@
         <v>0.50670000000000004</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +3748,14 @@
       <c r="C41" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42">
         <v>700</v>
       </c>
@@ -1889,8 +3765,14 @@
       <c r="C42">
         <v>0.90333333859841003</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="E42">
+        <v>300</v>
+      </c>
+      <c r="F42">
+        <v>0.49330000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43">
         <v>600</v>
       </c>
@@ -1900,8 +3782,14 @@
       <c r="C43">
         <v>0.91</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="E43">
+        <v>400</v>
+      </c>
+      <c r="F43">
+        <v>0.73329999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44">
         <v>500</v>
       </c>
@@ -1911,8 +3799,14 @@
       <c r="C44">
         <v>0.49330000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="E44">
+        <v>500</v>
+      </c>
+      <c r="F44">
+        <v>0.49330000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45">
         <v>400</v>
       </c>
@@ -1922,8 +3816,14 @@
       <c r="C45">
         <v>0.73329999999999995</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="E45">
+        <v>600</v>
+      </c>
+      <c r="F45">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46">
         <v>300</v>
       </c>
@@ -1933,13 +3833,19 @@
       <c r="C46">
         <v>0.49330000000000002</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="E46">
+        <v>700</v>
+      </c>
+      <c r="F46">
+        <v>0.90333333859841003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -1949,13 +3855,31 @@
       <c r="C51" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52">
         <v>700</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="B52">
+        <v>0.998</v>
+      </c>
+      <c r="C52">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="E52">
+        <v>300</v>
+      </c>
+      <c r="F52">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53">
         <v>600</v>
       </c>
@@ -1965,8 +3889,14 @@
       <c r="C53">
         <v>0.85299999999999998</v>
       </c>
-    </row>
-    <row r="54" spans="1:3">
+      <c r="E53">
+        <v>400</v>
+      </c>
+      <c r="F53">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54">
         <v>500</v>
       </c>
@@ -1976,8 +3906,14 @@
       <c r="C54">
         <v>0.84299999999999997</v>
       </c>
-    </row>
-    <row r="55" spans="1:3">
+      <c r="E54">
+        <v>500</v>
+      </c>
+      <c r="F54">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55">
         <v>400</v>
       </c>
@@ -1987,8 +3923,14 @@
       <c r="C55">
         <v>0.85</v>
       </c>
-    </row>
-    <row r="56" spans="1:3">
+      <c r="E55">
+        <v>600</v>
+      </c>
+      <c r="F55">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56">
         <v>300</v>
       </c>
@@ -1997,6 +3939,12 @@
       </c>
       <c r="C56">
         <v>0.49299999999999999</v>
+      </c>
+      <c r="E56">
+        <v>700</v>
+      </c>
+      <c r="F56">
+        <v>0.85699999999999998</v>
       </c>
     </row>
     <row r="94" spans="8:9">

--- a/Experiment results/MLPs results_world map detection.xlsx
+++ b/Experiment results/MLPs results_world map detection.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiali\Desktop\Map_Identification_Classification\Experiment results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\li.7957\Desktop\Map_Identification_Classification\Experiment results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EF4C26-86DA-4D3C-BF66-01FA0FDEA689}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22155" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="28">
   <si>
     <t>Training loss</t>
   </si>
@@ -113,12 +112,18 @@
   <si>
     <t>SVM training size test</t>
   </si>
+  <si>
+    <t>Training time</t>
+  </si>
+  <si>
+    <t>Test time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +136,6 @@
       <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -172,15 +170,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -602,6 +599,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -609,7 +607,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -689,6 +686,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1028,6 +1026,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3017,16 +3016,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>560292</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>85164</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123262</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>96370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>227318</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>70437</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>148877</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3352,24 +3351,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41:E46"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.53515625" customWidth="1"/>
-    <col min="2" max="2" width="20.69140625" customWidth="1"/>
-    <col min="3" max="3" width="20.15234375" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" customWidth="1"/>
-    <col min="5" max="5" width="17.84375" customWidth="1"/>
-    <col min="6" max="6" width="20.69140625" customWidth="1"/>
-    <col min="8" max="8" width="16.69140625" customWidth="1"/>
-    <col min="9" max="9" width="13.3828125" customWidth="1"/>
-    <col min="10" max="10" width="11.53515625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -3401,7 +3400,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
@@ -3477,7 +3476,7 @@
       <c r="A11">
         <v>1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11">
         <v>0.49142858319999999</v>
       </c>
       <c r="E11">
@@ -3513,30 +3512,36 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="B17" s="2">
+        <v>832.76599999999996</v>
+      </c>
+      <c r="C17" s="2">
         <v>0.93142857000000001</v>
       </c>
-      <c r="E17">
+      <c r="D17" s="2">
+        <v>0.30707119999999999</v>
+      </c>
+      <c r="E17" s="2">
         <v>0.90333333859841003</v>
       </c>
     </row>
@@ -3617,7 +3622,7 @@
       <c r="A26">
         <v>1</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>0.48857144000000002</v>
       </c>
       <c r="E26">
@@ -3625,7 +3630,7 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>12</v>
       </c>
       <c r="B28" t="s">
@@ -3645,7 +3650,7 @@
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>0.48857139999999999</v>
       </c>
       <c r="E29">
@@ -3653,7 +3658,7 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="3" t="s">
+      <c r="A31" t="s">
         <v>13</v>
       </c>
       <c r="B31" t="s">
@@ -3681,37 +3686,35 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="3" t="s">
+      <c r="A34" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>0</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>1</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s">
         <v>2</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="2">
+      <c r="A35">
         <v>1</v>
       </c>
-      <c r="B35" s="2"/>
       <c r="C35">
         <v>0.51290000000000002</v>
       </c>
-      <c r="D35" s="2"/>
       <c r="E35">
         <v>0.49299999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3" t="s">
+      <c r="A37" t="s">
         <v>17</v>
       </c>
       <c r="B37" t="s">
